--- a/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_6/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.152</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.995</v>
+        <v>18.211</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.041</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.419</v>
+        <v>21.946</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.988</v>
+        <v>15.46</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.50101891511809</v>
+        <v>-1.731271853295638</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.50154934548233</v>
+        <v>15.70418617684619</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.50519179942157</v>
+        <v>22.59166496277386</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.49674206087882</v>
+        <v>-4.18797744388506</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.50254113445683</v>
+        <v>14.03735245940381</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.50329320990992</v>
+        <v>20.22506532602837</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.49914477233733</v>
+        <v>3.446163621432689</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.50767313932799</v>
+        <v>23.96225980598821</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.50836623687334</v>
+        <v>31.33342056152789</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.5016728113417</v>
+        <v>26.93668658061962</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.50334166253289</v>
+        <v>34.85319841823583</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.50312659736193</v>
+        <v>38.85598431219434</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.50444763267196</v>
+        <v>5.32274052843924</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.50249395372739</v>
+        <v>26.47261770861213</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.50967283505265</v>
+        <v>35.41290443382378</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.498796122752</v>
+        <v>1.059677549646509</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.50419063529998</v>
+        <v>18.50001436173649</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.50688372102675</v>
+        <v>25.39141291625482</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.49645786625009</v>
+        <v>-1.402011965859614</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.49923576445707</v>
+        <v>16.82690736489828</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.50041625777643</v>
+        <v>23.01899373015637</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.49725254812774</v>
+        <v>6.234341353867549</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.5036245464532</v>
+        <v>26.75540361558275</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.50189514368896</v>
+        <v>8.665281828543826</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.50346079687516</v>
+        <v>26.10201821586919</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.5051847985374</v>
+        <v>32.98933684559894</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.49701155504628</v>
+        <v>6.211029400759131</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.50626701310766</v>
+        <v>24.43780893015993</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.50690201696343</v>
+        <v>30.62536091525637</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.49906100972991</v>
+        <v>13.84608700613343</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.5111752193897</v>
+        <v>34.36350430117103</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.51061302721358</v>
+        <v>41.73451989243064</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.51122163642565</v>
+        <v>37.33869789472205</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.51473891460232</v>
+        <v>45.25541148653009</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.51406374287057</v>
+        <v>49.25825202885905</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.50799790907409</v>
+        <v>15.72328446546796</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.51233905149843</v>
+        <v>36.87488086961174</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.51283168647343</v>
+        <v>45.81490326692007</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.50165470379449</v>
+        <v>11.45900559282394</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.50554794245778</v>
+        <v>28.90062092347468</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.50691301139217</v>
+        <v>35.79185943736162</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.49650203518082</v>
+        <v>8.999769497829462</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.50563141614092</v>
+        <v>27.23013860970254</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.50746559341908</v>
+        <v>33.42206423061715</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.49718251838357</v>
+        <v>16.63703956445126</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.51162834669934</v>
+        <v>37.15942310728475</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.49891366331348</v>
+        <v>11.51773512509796</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.50132541911247</v>
+        <v>28.95502603499678</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.50413587237441</v>
+        <v>35.8425111099473</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.4963922855799</v>
+        <v>9.064839814026655</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.50535478944866</v>
+        <v>27.2922095119451</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.50599497116877</v>
+        <v>33.47996713904412</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.49769253793129</v>
+        <v>16.7000275115213</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.51047537543557</v>
+        <v>37.21799137521408</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.51132000524903</v>
+        <v>44.58917910389336</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.51264156101679</v>
+        <v>40.19326122954148</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.51400634434857</v>
+        <v>48.10999014117955</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.51562420381888</v>
+        <v>52.11306670806188</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.49972255947695</v>
+        <v>18.57715034803552</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.50667610129817</v>
+        <v>39.72957260182979</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.51029175335922</v>
+        <v>48.6697934462659</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.49958134656085</v>
+        <v>14.31250272471176</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.50512590966131</v>
+        <v>31.75467261299606</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.50689802138137</v>
+        <v>38.64607760649575</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.49637396133582</v>
+        <v>11.85462381101321</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.50409859525405</v>
+        <v>30.08558314192955</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.50712314495638</v>
+        <v>36.27771443734754</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.49836600851114</v>
+        <v>19.49202405411269</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.51022535893003</v>
+        <v>40.0149541981631</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.49746285909464</v>
+        <v>3.812388382951568</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.49923123623989</v>
+        <v>21.24880474573264</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.50206805664289</v>
+        <v>28.13665751486361</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.49634438304101</v>
+        <v>1.358022957473977</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.50400302022386</v>
+        <v>19.58436134046725</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.50569581316792</v>
+        <v>25.77252574761657</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.49669909225852</v>
+        <v>8.99234500319541</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.50740645790374</v>
+        <v>29.50939543337269</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.50991863910422</v>
+        <v>36.88093891787163</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.50862295468847</v>
+        <v>32.48378814674142</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.51016948667446</v>
+        <v>40.40033765418765</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.51189669815697</v>
+        <v>44.40357404276575</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.49741749174283</v>
+        <v>10.86864197306546</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.5028008923164</v>
+        <v>32.01994058684103</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.50969778915922</v>
+        <v>40.96070778559353</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.49838765844798</v>
+        <v>6.605049907298636</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.50411714405069</v>
+        <v>24.04634514013937</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.5065612572895</v>
+        <v>30.93811773765187</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.49636662773499</v>
+        <v>4.145700653589088</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.50333599251591</v>
+        <v>22.37562857723437</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.50626683414129</v>
+        <v>28.56816653562989</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.49657848516997</v>
+        <v>11.78223509077419</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.50810646208521</v>
+        <v>32.30425168069418</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.50449453419032</v>
+        <v>34.13078517159444</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.50263817598356</v>
+        <v>29.7333999045335</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.50884254096395</v>
+        <v>37.65418641786381</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.51059859158585</v>
+        <v>41.65885520509086</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.49939785228397</v>
+        <v>8.117105823383341</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.50283841811282</v>
+        <v>29.27613265996605</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.50541102113984</v>
+        <v>38.21805044563952</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.50055313716037</v>
+        <v>11.31204853260114</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.50396237017171</v>
+        <v>28.75673545954034</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.50839907864665</v>
+        <v>35.65002119590271</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.49643514145011</v>
+        <v>8.855104753259994</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.49850346667081</v>
+        <v>27.08890708599326</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.50030536863622</v>
+        <v>33.28259177591805</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.49726955355631</v>
+        <v>16.49480105207671</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.50335746421898</v>
+        <v>37.02028659410463</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.5094709137825</v>
+        <v>44.39751186867058</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.50467159122472</v>
+        <v>40.00503189631742</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.51326835904023</v>
+        <v>47.92826059157029</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.51457105166405</v>
+        <v>51.93424929794868</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.49896859225533</v>
+        <v>18.382821550038</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.50289956791759</v>
+        <v>39.54667576705141</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.50676163497617</v>
+        <v>48.49175342944899</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.51345173186748</v>
+        <v>44.53465961771316</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.51163884000316</v>
+        <v>40.13818612225363</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.51624202005351</v>
+        <v>48.05917439571068</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.51741055076141</v>
+        <v>52.06389782907674</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.50358976858169</v>
+        <v>18.52042457400729</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.51416821401708</v>
+        <v>39.68117091255341</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.51311218767447</v>
+        <v>48.62282441222534</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.50413486368492</v>
+        <v>21.71412791722584</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.50718189194561</v>
+        <v>39.16009342728638</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.51184484332072</v>
+        <v>46.05321907097176</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.49666856234539</v>
+        <v>19.25963783303895</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.50996292272969</v>
+        <v>37.49489003598616</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.51252540654619</v>
+        <v>43.68841392675303</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.49819350309214</v>
+        <v>26.9002510488814</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.51787219964457</v>
+        <v>47.42705793704296</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.52142043276007</v>
+        <v>54.80413810942242</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.51891943655461</v>
+        <v>50.41256998014229</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>28.52400159884639</v>
+        <v>58.33600043595312</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.52610547527635</v>
+        <v>62.34204378545486</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.50941283781078</v>
+        <v>28.78889205056102</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>28.52236066578701</v>
+        <v>49.95446580770523</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.52342846695505</v>
+        <v>58.89927919296885</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.51659849929986</v>
+        <v>47.39036288531101</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.51071545740488</v>
+        <v>42.99379330823616</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.51372243574947</v>
+        <v>50.91479682587227</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.51703029824057</v>
+        <v>54.9197563205404</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.50082064714895</v>
+        <v>21.37533439024618</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.51302191019609</v>
+        <v>42.53690663556439</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.5145598950762</v>
+        <v>51.47875859595537</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.50045005654547</v>
+        <v>24.56944359708133</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.50630005295187</v>
+        <v>42.01596368919515</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.51124681406683</v>
+        <v>48.90925579896579</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.49642348755466</v>
+        <v>22.11631084162561</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.50897533788536</v>
+        <v>40.35215329069651</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.51212038289937</v>
+        <v>46.54588284808757</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.49885028233351</v>
+        <v>29.7570543223576</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.51770353806701</v>
+        <v>50.2844078370497</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.52362996390172</v>
+        <v>57.66166016915851</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.52109288513039</v>
+        <v>53.26999595048223</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.52514537409207</v>
+        <v>61.19344165392955</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.52748499441251</v>
+        <v>65.19972105917999</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.50205402878649</v>
+        <v>31.6456205558318</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.52081794899438</v>
+        <v>52.81202021901926</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.52410024353232</v>
+        <v>61.75703207248206</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.51321374634018</v>
+        <v>39.68001603603263</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.50466622138245</v>
+        <v>35.28221360523163</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.5073405285417</v>
+        <v>43.20303766867052</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.50985185020354</v>
+        <v>47.20815701990774</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.4989010098398</v>
+        <v>13.66471955998919</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.51017816426027</v>
+        <v>34.82516795580479</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.5124490551465</v>
+        <v>43.76756624119777</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.49956517390644</v>
+        <v>16.86059942069473</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.50595093611302</v>
+        <v>34.30624482222198</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.51238299643533</v>
+        <v>41.19990460054591</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.49645940372653</v>
+        <v>14.40599615239616</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.50899089718497</v>
+        <v>32.64080713715795</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.51287913456888</v>
+        <v>38.83494342940266</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.49677652038226</v>
+        <v>22.04587373638505</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.51662982606819</v>
+        <v>42.57231366358555</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.52307724648517</v>
+        <v>49.94992172917411</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.51789244330099</v>
+        <v>45.55702458089424</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.52275147478212</v>
+        <v>53.48029084526003</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.52720914700025</v>
+        <v>57.4867301222496</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.49945723504163</v>
+        <v>23.93361407183501</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.51861768910137</v>
+        <v>45.09888986077614</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.52491065951909</v>
+        <v>54.04444805593415</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>27.01555888522256</v>
+        <v>-0.720783034709811</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>27.26338787624998</v>
+        <v>16.71349526427652</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.05089910925715</v>
+        <v>23.60022412869763</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.89174566377372</v>
+        <v>-3.180263593707636</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>27.00617219284677</v>
+        <v>15.04399094928534</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>27.18911684736145</v>
+        <v>21.2308475914174</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>26.50214248219675</v>
+        <v>4.455475022212696</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.26805544320657</v>
+        <v>24.97022091693954</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.58972576163336</v>
+        <v>32.34068837750205</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>27.15131609505566</v>
+        <v>27.94406627478499</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>27.61365348338133</v>
+        <v>35.86012894191369</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>27.57599803446895</v>
+        <v>39.86222219657158</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>27.45510485035364</v>
+        <v>6.331179301707735</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>27.25566197188262</v>
+        <v>27.47987149882648</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.62659264088533</v>
+        <v>36.41889829165713</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.71367663364481</v>
+        <v>2.07526196084747</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.96341370478706</v>
+        <v>19.51441908652068</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.62999169331216</v>
+        <v>26.40506757750997</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.81452507355104</v>
+        <v>-0.3892025776435588</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>26.46852215673089</v>
+        <v>17.8386415085097</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>26.79490419690628</v>
+        <v>24.02987147110959</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>26.03255807211316</v>
+        <v>7.248748920105882</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27.63678311340509</v>
+        <v>27.76846093342137</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>27.19325915914808</v>
+        <v>9.674674951459011</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>27.73204712433288</v>
+        <v>27.11023156010755</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.04945407763271</v>
+        <v>33.9968002795804</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>25.9604070393391</v>
+        <v>7.217647415943148</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.14970776398438</v>
+        <v>25.44335154227214</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.29005939399647</v>
+        <v>31.6300473050584</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>26.36729101488445</v>
+        <v>14.85430251584172</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.35528889268349</v>
+        <v>35.37036946787408</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.2427493199183</v>
+        <v>42.74069177727178</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.56767184155593</v>
+        <v>38.34498164979085</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>30.46356237406757</v>
+        <v>46.26124607053761</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>30.40038107182048</v>
+        <v>50.26339398047993</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.43752995962554</v>
+        <v>16.73062736672308</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.77716907211101</v>
+        <v>37.88103874061791</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.91443502518099</v>
+        <v>46.81980122292079</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>27.19550612939645</v>
+        <v>12.47349436389369</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.3790736973094</v>
+        <v>29.91392996062542</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.71253870006519</v>
+        <v>36.80441842234519</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25.82968003275358</v>
+        <v>10.01148310634052</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.22612784264553</v>
+        <v>28.24077693091148</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.70670041006924</v>
+        <v>34.43184615115878</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>26.00564747075251</v>
+        <v>17.65035129526281</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.89395415474227</v>
+        <v>38.17138453643862</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.50555973610011</v>
+        <v>12.52647419209985</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.11664998998884</v>
+        <v>29.96258529456647</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>27.77458858406305</v>
+        <v>36.84932045338248</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.8087342129455</v>
+        <v>10.0708037112238</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>27.82259237975853</v>
+        <v>28.29709797925058</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.00741751327686</v>
+        <v>34.48399937443538</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>26.22184066754953</v>
+        <v>17.70758885547811</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.23230620753736</v>
+        <v>38.22420234519656</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.47611249584987</v>
+        <v>45.59469678695736</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.83945933010515</v>
+        <v>41.19889085347008</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>30.21822120428884</v>
+        <v>49.11517058229357</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>30.71367377218087</v>
+        <v>53.11755451145008</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>26.85900250321938</v>
+        <v>19.58383914769878</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.590949817291</v>
+        <v>40.73507634181227</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.25633996709006</v>
+        <v>49.67403725331737</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>26.66045027224347</v>
+        <v>15.32633738695735</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.22733822322705</v>
+        <v>32.76732751243379</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.71069034490145</v>
+        <v>39.65798244794861</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>25.79351595874596</v>
+        <v>12.86568324846623</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.68270378604484</v>
+        <v>31.09556726529105</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.61894234358179</v>
+        <v>37.28684215073885</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>26.39169809132819</v>
+        <v>20.50468156653655</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.45104911739259</v>
+        <v>41.02626137798224</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>26.13192020997455</v>
+        <v>4.821807914379647</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>26.56212913755245</v>
+        <v>22.25704449498848</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>27.2405008412213</v>
+        <v>29.14414732169361</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>25.79324843218335</v>
+        <v>2.364667410608277</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>27.39881791728839</v>
+        <v>20.58993038690859</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>27.98088764666891</v>
+        <v>26.77723854213697</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>25.88351629034538</v>
+        <v>10.0005869293815</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.25552912622818</v>
+        <v>30.51628701511926</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.13420012923873</v>
+        <v>37.88713718482269</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.45457230498584</v>
+        <v>33.49009842602256</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.88067012793649</v>
+        <v>41.40619873781215</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.48837643461795</v>
+        <v>45.40874246957914</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>26.15004777712042</v>
+        <v>11.87601138236711</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>27.52215785355408</v>
+        <v>33.02612495989059</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.21203114469404</v>
+        <v>41.96563217425013</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>26.29853714178268</v>
+        <v>7.619564924671195</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>27.82933025473952</v>
+        <v>25.05968042005601</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.62399404616828</v>
+        <v>31.95070293325627</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.79192385825787</v>
+        <v>5.157440537771222</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>27.55726034692804</v>
+        <v>23.38629317035931</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.51551466585973</v>
+        <v>29.57797469881349</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>25.85014311355549</v>
+        <v>12.79557307518452</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.80949226116668</v>
+        <v>33.31623936224754</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.89354893772653</v>
+        <v>35.14314906399149</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.41103919863667</v>
+        <v>30.74587544087707</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.87713075781615</v>
+        <v>38.66621257586611</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.23120708601331</v>
+        <v>42.67018860059319</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>26.53222046495148</v>
+        <v>9.130640385584698</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>27.39004766468926</v>
+        <v>30.28848200135657</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.06269063310548</v>
+        <v>39.22913985702327</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>27.01301008666487</v>
+        <v>12.33102117385262</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>27.91787848336909</v>
+        <v>29.77452833588519</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.04824978679403</v>
+        <v>36.66706399924307</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.80869993085852</v>
+        <v>9.871302028199139</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>26.24984900575159</v>
+        <v>28.10402906686615</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>26.63742101283644</v>
+        <v>34.2968573167134</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>26.07221339851792</v>
+        <v>17.51259684274932</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>27.46660254101327</v>
+        <v>38.03673205594227</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.99121186674953</v>
+        <v>45.41326391391398</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>27.93123270511681</v>
+        <v>41.02089501982745</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.99204020471687</v>
+        <v>48.94367428438024</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.35089339117158</v>
+        <v>52.94897027742969</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>26.43880454328453</v>
+        <v>19.39974398050948</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.38239840855162</v>
+        <v>40.56241298340684</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.3070860331773</v>
+        <v>49.50623053217784</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>30.25904082877774</v>
+        <v>45.54592763478639</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>30.01279264273336</v>
+        <v>41.14956577465195</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>31.12987105250739</v>
+        <v>49.07010466959447</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>31.30385481846657</v>
+        <v>53.07413534774436</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>27.64556244214239</v>
+        <v>19.53286331920323</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>30.59402393875694</v>
+        <v>40.69242438985431</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>30.39501740181996</v>
+        <v>49.63281797703827</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>27.93343129504074</v>
+        <v>22.73200482428014</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.83060298945512</v>
+        <v>40.17679052169491</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>30.00320264857135</v>
+        <v>47.06916610382497</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>25.89153379712589</v>
+        <v>20.27473923378922</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.41252224716365</v>
+        <v>38.50891609992199</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>30.04310406125362</v>
+        <v>44.70158355277614</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>26.3692018999992</v>
+        <v>27.91695090964187</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>31.66700470284037</v>
+        <v>48.44240741564376</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>32.23050243302837</v>
+        <v>55.81879418443806</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>32.18317107533036</v>
+        <v>51.42733712506107</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>33.32832803501826</v>
+        <v>59.35031814981291</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>33.71499434782441</v>
+        <v>63.35566879315492</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.35771652280069</v>
+        <v>29.80471856986664</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>32.9285786629085</v>
+        <v>50.9691070654891</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>33.16161334677764</v>
+        <v>59.912660354398</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>31.14340956126918</v>
+        <v>48.40097664771442</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.58670556703045</v>
+        <v>44.00451877668151</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>30.4475140086734</v>
+        <v>51.925072903735</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>31.26969297699547</v>
+        <v>55.92933963801092</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>26.98956854929498</v>
+        <v>22.38711898140527</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>30.39591304013788</v>
+        <v>43.54750592924599</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>30.90261891261511</v>
+        <v>52.48809795919091</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>26.89061875182123</v>
+        <v>25.58666634913745</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.54521548784578</v>
+        <v>43.03200659961557</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.88220190637635</v>
+        <v>49.9245486421628</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>25.81408077928355</v>
+        <v>23.13075802506172</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.01410194643373</v>
+        <v>41.36552511090839</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.95281866233703</v>
+        <v>47.5583982205891</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>26.53899965968875</v>
+        <v>30.7730999179188</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>31.53266033961154</v>
+        <v>51.29910301979193</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>32.92410629353062</v>
+        <v>58.67566194314317</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>32.57157976305167</v>
+        <v>54.28410886529083</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>33.54266543321781</v>
+        <v>62.20710512595691</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>34.0973324190001</v>
+        <v>66.21269181966524</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.54096954186481</v>
+        <v>32.66079287462743</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>32.57718656227422</v>
+        <v>53.82600724689986</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>33.43928609523434</v>
+        <v>62.76975898621096</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>30.35829047655041</v>
+        <v>40.69131027241305</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>27.94843951968574</v>
+        <v>36.29361961956137</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.64701810300145</v>
+        <v>44.21399427975531</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.35748694862732</v>
+        <v>48.21842085109462</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>26.43417564190524</v>
+        <v>14.67718465113082</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.53590433248517</v>
+        <v>35.83644777277983</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>30.2960352270853</v>
+        <v>44.77758607623754</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>26.71358333597635</v>
+        <v>17.87850262571773</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.40701490474533</v>
+        <v>35.32296821149397</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>30.09254426308366</v>
+        <v>42.21587789615002</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.82793161098939</v>
+        <v>15.4211238806928</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.11845593352822</v>
+        <v>33.65485952512871</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>30.14392793957287</v>
+        <v>39.84813934969306</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>25.91303228669082</v>
+        <v>23.06259990302955</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>31.1771586505755</v>
+        <v>43.58768944671205</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>32.82105152413301</v>
+        <v>50.96460407574399</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>31.56666769941344</v>
+        <v>46.57181814014008</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>32.7556969086694</v>
+        <v>54.49463494857277</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>33.99493057007835</v>
+        <v>58.50038149467606</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>26.62160674969699</v>
+        <v>24.94946698925823</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>31.70167796849164</v>
+        <v>46.11355751058319</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>33.4179954891261</v>
+        <v>55.05785554011256</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.92376870232334</v>
+        <v>-1.514890936150763</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.23264427081775</v>
+        <v>15.91947371519122</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.02110602272009</v>
+        <v>22.80615945944068</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.78062694400645</v>
+        <v>-3.974408201340893</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>26.87076016073785</v>
+        <v>14.24992923860431</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27.07060825475674</v>
+        <v>20.4367066868938</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.40373137847872</v>
+        <v>3.661301913081857</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.15583941185477</v>
+        <v>24.17615207790006</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.49672779824926</v>
+        <v>31.54658584572975</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>27.08781303306049</v>
+        <v>27.15018063161769</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>27.56754257826819</v>
+        <v>35.06624674421802</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.53166811225769</v>
+        <v>39.0683167276202</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>27.3417157317148</v>
+        <v>5.537065131822388</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>27.19391783558735</v>
+        <v>26.68589429091209</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.50977938790031</v>
+        <v>35.62482728849081</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>26.61882326731311</v>
+        <v>1.287199709910524</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.87293933578722</v>
+        <v>18.7264433713266</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.60705045838538</v>
+        <v>25.61704872995018</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.70056732521431</v>
+        <v>-1.177301240129154</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.3321285715882</v>
+        <v>17.05062594801588</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>26.64816063467414</v>
+        <v>23.24177672189582</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.92084953952142</v>
+        <v>6.460622121644533</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>27.48718427211175</v>
+        <v>26.98043859620317</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>27.13502704283314</v>
+        <v>8.880634436326332</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>27.71913777041127</v>
+        <v>26.31627740608816</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.04810001619853</v>
+        <v>33.20280300286608</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.8510044965106</v>
+        <v>6.423570213172312</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.09057858174766</v>
+        <v>24.64935724694307</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.24365417468248</v>
+        <v>30.83597381314213</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>26.26635468691627</v>
+        <v>14.06019680885596</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.35149809517761</v>
+        <v>34.5763680400138</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.23109955847881</v>
+        <v>41.94665665432991</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.60167230809368</v>
+        <v>37.5511634154234</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>30.52703824231802</v>
+        <v>45.46743128725088</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>30.45695035282186</v>
+        <v>49.46955592367239</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.41384319621059</v>
+        <v>15.93658059460348</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.81810549581891</v>
+        <v>37.08712894387499</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.93845895258946</v>
+        <v>46.02579762854045</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>27.09746387855181</v>
+        <v>11.68549955654682</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.2962726914194</v>
+        <v>29.12602169793435</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.64803122172605</v>
+        <v>36.01646702471409</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>25.71984534191335</v>
+        <v>9.223451906712413</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.08765937766874</v>
+        <v>27.45282884367272</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.60227311486797</v>
+        <v>33.64381887282754</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>25.90415936623281</v>
+        <v>16.8622919565595</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.78806665863226</v>
+        <v>37.38342966812321</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>26.4468535346421</v>
+        <v>11.73247018573922</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>27.10791144691759</v>
+        <v>29.16866765040392</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>27.80257974388726</v>
+        <v>36.05535968746553</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>25.69992543611432</v>
+        <v>9.276763025116693</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>27.7441475939861</v>
+        <v>27.50314020203804</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.96292010636918</v>
+        <v>33.68996240248045</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>26.12954909848335</v>
+        <v>16.91351966619369</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.24347047585907</v>
+        <v>37.43023743620405</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.48707135217475</v>
+        <v>44.80069818354117</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.82720307387612</v>
+        <v>40.40510913724758</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>30.23739347071095</v>
+        <v>48.32139231698217</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>30.73377424071811</v>
+        <v>52.32375297177352</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.9058438036983</v>
+        <v>18.78982889179373</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.75238502435276</v>
+        <v>39.94120306272306</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.35952653330503</v>
+        <v>48.88007017841188</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>26.56961977350754</v>
+        <v>14.53837907516846</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.15364350899639</v>
+        <v>31.97945574642098</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.66418127138617</v>
+        <v>38.8700675480966</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.68102458338858</v>
+        <v>12.07768855202882</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>27.54695366867718</v>
+        <v>30.30765568259348</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.51952082309561</v>
+        <v>36.49885137856428</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.31176498885266</v>
+        <v>19.71665873214523</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.37291639817339</v>
+        <v>40.23834301518379</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.04590900921589</v>
+        <v>4.027755962691359</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>26.4866383532441</v>
+        <v>21.46307889697222</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>27.18877229212227</v>
+        <v>28.35013860558071</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.68427830516438</v>
+        <v>1.570578764509165</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>27.26070499564004</v>
+        <v>19.79592463972064</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>27.91005429993156</v>
+        <v>25.98315360486482</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>25.77887760764592</v>
+        <v>9.206469782872446</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.13802425565983</v>
+        <v>29.72227414062833</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.10328364680654</v>
+        <v>37.0930906191369</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.29430625050106</v>
+        <v>32.69626874682105</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.73655048207665</v>
+        <v>40.61237250324065</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.37930014353234</v>
+        <v>44.61489296264598</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>26.08657868526139</v>
+        <v>11.08195317353024</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.53922840639024</v>
+        <v>32.2322037143016</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.28673183639035</v>
+        <v>41.17161713643863</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>26.1780908302935</v>
+        <v>6.831558618675118</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>27.72687913202956</v>
+        <v>24.27176065148718</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.5568798258188</v>
+        <v>31.16274003444154</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.67961229756444</v>
+        <v>4.369397832697828</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>27.41868882232895</v>
+        <v>22.59833356922844</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.41562648815115</v>
+        <v>28.78993591277573</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.7403714287712</v>
+        <v>12.00750223491015</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.69329799765314</v>
+        <v>32.52827298525757</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>27.75669296059798</v>
+        <v>34.35509301753235</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>27.27310917463809</v>
+        <v>29.9580359541127</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.80353683549154</v>
+        <v>37.8783765962602</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.17239024994606</v>
+        <v>41.88232930793914</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>26.40504647894583</v>
+        <v>8.342572152159519</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>27.2523160455133</v>
+        <v>29.50055091941864</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>27.91834776196031</v>
+        <v>38.44111497284133</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>26.93490821012835</v>
+        <v>11.54239468904008</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.84901796355524</v>
+        <v>28.98598839469823</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.0344753156048</v>
+        <v>35.87848096145559</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>25.69520782121453</v>
+        <v>9.082639116498527</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.12414922105848</v>
+        <v>27.31544928002963</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>26.49583321205178</v>
+        <v>33.50819836067218</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.97187870477553</v>
+        <v>16.72390574834243</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.33917628602967</v>
+        <v>37.24814543273546</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.8757541615913</v>
+        <v>44.62464361710785</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>27.82860805245313</v>
+        <v>40.23249131860906</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.98599896842292</v>
+        <v>48.15527407746505</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>30.32560637846454</v>
+        <v>52.1605467936479</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>26.32920845345685</v>
+        <v>18.61111149754869</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>27.25826907999465</v>
+        <v>39.77391765558777</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.16932469219346</v>
+        <v>48.71764143652719</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>30.19868416465915</v>
+        <v>44.7579390545625</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.90548106770094</v>
+        <v>40.36179375445296</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>31.1427125545989</v>
+        <v>48.28233616208162</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>31.35845054672482</v>
+        <v>52.28634352482528</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>27.57183379079064</v>
+        <v>18.74486254130535</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>30.55279918884454</v>
+        <v>39.90456077686987</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>30.33854410221083</v>
+        <v>48.84486055967251</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>27.85837786378347</v>
+        <v>21.94344577578103</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.7901049563495</v>
+        <v>39.38831802558697</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>30.05686252559107</v>
+        <v>46.28065050854902</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.78348468085432</v>
+        <v>19.48614377752632</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.33422517707968</v>
+        <v>37.7204037788173</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>30.03251660154227</v>
+        <v>43.91299205988413</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>26.28901874308251</v>
+        <v>27.12832726791318</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>31.67610069078193</v>
+        <v>47.6538882542218</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>32.34244478449111</v>
+        <v>55.03024134691215</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>32.19547300660572</v>
+        <v>50.63900088332856</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>33.48881259694654</v>
+        <v>58.56198540778179</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>33.93511512338485</v>
+        <v>62.56731277202847</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.33018232930071</v>
+        <v>29.01615353514912</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>33.02462771004481</v>
+        <v>50.18067919938848</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>33.24301345799236</v>
+        <v>59.12413871830132</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>31.1395295358691</v>
+        <v>47.61302457373644</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.50241229278446</v>
+        <v>43.21678326120458</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>30.38414223384957</v>
+        <v>51.13734090106074</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>31.29089401105907</v>
+        <v>55.14158431901309</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.93533285319067</v>
+        <v>21.59915470595571</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.37989308039471</v>
+        <v>42.75967882044291</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>30.89183268189612</v>
+        <v>51.70017704758244</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.81325954359593</v>
+        <v>24.79814380025006</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.50541186002009</v>
+        <v>42.2435706044637</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.93289144542776</v>
+        <v>49.13606954876538</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.70405408697681</v>
+        <v>22.3421990761624</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.92420972103012</v>
+        <v>40.57704929851958</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.94767320793862</v>
+        <v>46.76984323832814</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>26.46963400980143</v>
+        <v>29.98451278474001</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>31.53319361394589</v>
+        <v>50.51062036825955</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>33.0774265986621</v>
+        <v>57.88714561606015</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>32.61915223712158</v>
+        <v>53.49580913249225</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>33.67523099186405</v>
+        <v>61.41880889286882</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>34.32001579505746</v>
+        <v>65.42437230638554</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.5528089544662</v>
+        <v>31.87226434668209</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>32.61090319830367</v>
+        <v>53.03761588940121</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>33.49979138759107</v>
+        <v>61.98127386020771</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>30.2826918086569</v>
+        <v>39.90331018736426</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.80740199320955</v>
+        <v>35.50583609245145</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.51566651080113</v>
+        <v>43.42621425879953</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.24950963211144</v>
+        <v>47.43061751597249</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>26.33332277101792</v>
+        <v>13.88917237430884</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.46134589466352</v>
+        <v>35.04857264887427</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>30.24987991836862</v>
+        <v>43.98961715315751</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>26.63522216885603</v>
+        <v>17.08993209380232</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.34914398133336</v>
+        <v>34.53448422459611</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>30.14937407785047</v>
+        <v>41.42735081468722</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>25.71789239177213</v>
+        <v>14.63251693401061</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.03467096681435</v>
+        <v>32.86633570509686</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>30.16715592594516</v>
+        <v>39.05953636439087</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.8054560970873</v>
+        <v>22.27396477479182</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>31.1342371631555</v>
+        <v>42.79915879178851</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>32.96720509046924</v>
+        <v>50.17603974864836</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>31.54185106755185</v>
+        <v>45.78347040653354</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>32.80427499446954</v>
+        <v>53.70629070820122</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>34.18219791065136</v>
+        <v>57.7120139764702</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.51336163550948</v>
+        <v>24.16089047104494</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>31.64423296761581</v>
+        <v>45.32511814886006</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>33.50758659386423</v>
+        <v>54.26932241364865</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.49546915548853</v>
+        <v>-6.561752449333071</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.49593542083554</v>
+        <v>10.8725141895443</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.50452458482201</v>
+        <v>17.75971623450506</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.48678631079112</v>
+        <v>-9.019079168615448</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.50074858509398</v>
+        <v>9.20493961085198</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.50232538117859</v>
+        <v>15.39242570246053</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.4916318493694</v>
+        <v>-1.38564861121516</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.511873628548</v>
+        <v>19.12919770459281</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.51290034299981</v>
+        <v>26.50007074894621</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.49719129362319</v>
+        <v>22.10333296912678</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.50039979388537</v>
+        <v>30.01953566631757</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.49987257688014</v>
+        <v>34.02219766558359</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.5047170555325</v>
+        <v>0.4907684827699228</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.49933158138398</v>
+        <v>21.63920698407448</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.51685962373918</v>
+        <v>30.57908726210134</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.48980802438973</v>
+        <v>-3.771960446098646</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.50212073674916</v>
+        <v>13.66718477925248</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.50718785767138</v>
+        <v>20.5583065132288</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.48627292143289</v>
+        <v>-6.234270952278834</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.49255947758676</v>
+        <v>11.99333709543249</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.4950048518444</v>
+        <v>18.18519657725564</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.48781610720513</v>
+        <v>1.401371671665984</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.5020166622308</v>
+        <v>21.92118386721712</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.49733205874528</v>
+        <v>3.834365804914924</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.50007738756968</v>
+        <v>21.26991075993364</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.50479674712874</v>
+        <v>28.15695265548676</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.4873541833008</v>
+        <v>1.379492176610157</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.50754723344965</v>
+        <v>19.60496053762576</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.50892520488604</v>
+        <v>25.79228575354911</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.49217958678344</v>
+        <v>9.013839243466137</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.51868307252803</v>
+        <v>29.53000662764158</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.51743060100006</v>
+        <v>36.90073451454693</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.5176004612802</v>
+        <v>32.5049087034612</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.52486697279954</v>
+        <v>40.42131314855193</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.52290191412091</v>
+        <v>44.42402979699888</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.51172703228653</v>
+        <v>10.89087688732299</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.52075107839748</v>
+        <v>32.04103455890994</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.52182142989628</v>
+        <v>40.98065051949699</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.49755527077062</v>
+        <v>6.626932045823779</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.50488382148158</v>
+        <v>24.06735574873382</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.50748958780458</v>
+        <v>30.95831744892213</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.48639354054608</v>
+        <v>4.167074888692824</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.50591106259773</v>
+        <v>22.39613267290498</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.50914044538827</v>
+        <v>28.5878314162958</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.51828152440531</v>
+        <v>32.3247676630025</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.49092279832476</v>
+        <v>6.686720251360967</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.49624390843977</v>
+        <v>24.12281971886092</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.50322363945825</v>
+        <v>31.0100280554483</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.48609179073965</v>
+        <v>4.233203706666373</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.50644962287574</v>
+        <v>22.45926222646621</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.50766088315016</v>
+        <v>28.64679307863004</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.4882905954685</v>
+        <v>11.86768086371991</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.51691807264183</v>
+        <v>32.38439480659498</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.51906723628377</v>
+        <v>39.75529482671585</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.52104463798318</v>
+        <v>35.35937314722277</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.52393805535293</v>
+        <v>43.27579290892744</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.52723478640142</v>
+        <v>47.2787455773139</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.49209517451215</v>
+        <v>13.74464389182732</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.50812752563715</v>
+        <v>34.89562739598047</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.51652932315758</v>
+        <v>43.83544179919581</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.49281569462948</v>
+        <v>9.480330278228863</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.50411022229552</v>
+        <v>26.92130852881645</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.50739471110314</v>
+        <v>33.81243670449568</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.48611862649595</v>
+        <v>7.021830269209673</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.50339397751026</v>
+        <v>25.25147826279887</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.50862626010833</v>
+        <v>31.4433826749695</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.48987770291331</v>
+        <v>14.65851978414527</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.51589514546484</v>
+        <v>35.18019980980957</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.48788805096294</v>
+        <v>-1.018285578893696</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.49182802852037</v>
+        <v>16.41693937317679</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.4989888478462</v>
+        <v>23.30451539124046</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.48601476116838</v>
+        <v>-3.473272193001648</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.50401193615853</v>
+        <v>14.75175504690641</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.50697813283588</v>
+        <v>20.93969266645071</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.48664812677742</v>
+        <v>4.160339339610587</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.51151688957749</v>
+        <v>24.6761398817754</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.51615058716773</v>
+        <v>32.04739564480703</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.51467121057346</v>
+        <v>27.65024109523098</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.51799091658915</v>
+        <v>35.56648145502074</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.52094203664464</v>
+        <v>39.56959393984415</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.48771692614683</v>
+        <v>6.03647651167104</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.50023929711639</v>
+        <v>27.18633641478051</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.51551571742758</v>
+        <v>36.12669715376673</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.49051067112054</v>
+        <v>1.773218461219372</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.50256921603604</v>
+        <v>19.21332208806167</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.50658436077841</v>
+        <v>26.10481785483945</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.48610103952841</v>
+        <v>-0.6867518430403692</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.50113517959373</v>
+        <v>17.54186477832106</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.50618682189189</v>
+        <v>23.73417584061339</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.48655471056399</v>
+        <v>6.94907189292509</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.51118585717699</v>
+        <v>27.46983839753956</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.50373903093748</v>
+        <v>29.29627763277371</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.49950129869283</v>
+        <v>24.89888868559446</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.51263018294657</v>
+        <v>32.81936592090416</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.51613311588195</v>
+        <v>36.82391079749415</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.4927754074286</v>
+        <v>3.283976325487643</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.50007099590225</v>
+        <v>24.44156411974861</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.5053937588502</v>
+        <v>33.38307545506485</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.49416813059031</v>
+        <v>6.482074836482653</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.50127802262936</v>
+        <v>23.92557013037732</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.51072655632549</v>
+        <v>30.8185790527149</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.48622588581861</v>
+        <v>4.024509930418063</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.49121721060386</v>
+        <v>22.25700092549074</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.49553732533156</v>
+        <v>28.45045873080052</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.48776565950865</v>
+        <v>11.66349562440293</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.50180960339088</v>
+        <v>32.18773105862057</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.5152777721714</v>
+        <v>39.56466855478187</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.50368981910074</v>
+        <v>35.17218463049643</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.5208440573415</v>
+        <v>43.09510404107483</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.52398300632407</v>
+        <v>47.1009688138388</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.49190569264499</v>
+        <v>13.55135606358216</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.5003603437865</v>
+        <v>34.71377121231446</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.50890856841264</v>
+        <v>43.65844237076955</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.52158368330265</v>
+        <v>39.699716390105</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.51774251191693</v>
+        <v>35.30323919977788</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.52668927264876</v>
+        <v>43.22391818909036</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.5288005395403</v>
+        <v>47.22851771258037</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.5019885291753</v>
+        <v>13.68685941999276</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.52300335213343</v>
+        <v>34.84616666241153</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.52073588794902</v>
+        <v>43.78741372234164</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.50165488447572</v>
+        <v>16.88371864334785</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.50762500673705</v>
+        <v>34.32849247916489</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.51689957205151</v>
+        <v>41.22134131577594</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>28.48667265679602</v>
+        <v>14.42860736043907</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.51433159253555</v>
+        <v>32.66254818103438</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.51903522311439</v>
+        <v>38.85584519318515</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.48942677253162</v>
+        <v>22.06850994091077</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.52976025173167</v>
+        <v>42.59406667900306</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.53707950806145</v>
+        <v>49.97085907976818</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.53141287414637</v>
+        <v>45.57928698414072</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.54120521723497</v>
+        <v>53.50240814884377</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.54568683405949</v>
+        <v>57.50832756548961</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.51187435606953</v>
+        <v>23.95699088122423</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.53808370822716</v>
+        <v>45.12112551614554</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.54050363216322</v>
+        <v>54.06553240793734</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.52745925156239</v>
+        <v>42.55532070927201</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.51649043196849</v>
+        <v>38.15874744525082</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.52184052407339</v>
+        <v>46.07944167548546</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.52817446711101</v>
+        <v>50.08427725567255</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.49557685662835</v>
+        <v>16.54167030927671</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.52027307917538</v>
+        <v>37.70180344129655</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.52295987777101</v>
+        <v>46.64324895721451</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.49414193333717</v>
+        <v>19.73893538115239</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.50601745772966</v>
+        <v>37.18426378872927</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.51589054674742</v>
+        <v>44.07727908755307</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.48620101082877</v>
+        <v>17.28518139329493</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.51275428196489</v>
+        <v>35.5197124507189</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.51807602598228</v>
+        <v>41.71321512369549</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.49082767806813</v>
+        <v>24.92521423694792</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.52957266205224</v>
+        <v>45.45131759188986</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.5411751138588</v>
+        <v>52.82828214816472</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.53548683250014</v>
+        <v>48.43661397116752</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.54362795893016</v>
+        <v>56.35975038040921</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.54851477546929</v>
+        <v>60.36590584808631</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.49713631591697</v>
+        <v>26.81362041659078</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.53567313967178</v>
+        <v>47.97858094059735</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.54211601034156</v>
+        <v>56.92318629602825</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.52036389345053</v>
+        <v>34.84531495234161</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.50366668633595</v>
+        <v>30.44750886116539</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.50888436585542</v>
+        <v>38.36802363957658</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.51360272478352</v>
+        <v>42.37301907091468</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.49177182194295</v>
+        <v>8.831396561844045</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.51482847726028</v>
+        <v>29.99040588325853</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.51860089349665</v>
+        <v>38.93239770570302</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.4923379743391</v>
+        <v>12.03043220512122</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.50547017567588</v>
+        <v>29.4748859540971</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.51815527907198</v>
+        <v>36.36826890847057</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.48626058458493</v>
+        <v>9.575207749797428</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.51213689360882</v>
+        <v>27.80870737777015</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.51943800429425</v>
+        <v>34.00261677261905</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.48689415398678</v>
+        <v>17.21437472379195</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.52770711441599</v>
+        <v>37.73956452400149</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.53984190251523</v>
+        <v>45.1168848008431</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.52998696097758</v>
+        <v>40.72398372113595</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.54002437369775</v>
+        <v>48.64694069348185</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.54793787700373</v>
+        <v>52.65325602770851</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.49247243793524</v>
+        <v>19.1019550159847</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.53260186301421</v>
+        <v>40.26579170452125</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.54398151450525</v>
+        <v>49.21094338321815</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.50162138696837</v>
+        <v>-1.76193689655689</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.50207090942605</v>
+        <v>15.67307867787669</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.50604556922897</v>
+        <v>22.5604205886025</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.4973778746911</v>
+        <v>-4.218303770382803</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.50383862658723</v>
+        <v>14.00652110405692</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.50467389451888</v>
+        <v>20.19410843924506</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.49969591824675</v>
+        <v>3.415559825061692</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.509076909422</v>
+        <v>23.93115932966749</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.50966680341078</v>
+        <v>31.30217453731122</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.50232495451747</v>
+        <v>26.9054272544645</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.50383143161683</v>
+        <v>34.82191296828604</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.50361659918136</v>
+        <v>38.82456308423708</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.50566057190429</v>
+        <v>5.291981404157482</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.50340360466499</v>
+        <v>26.44140270703782</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.51136053651713</v>
+        <v>35.38144751424399</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.49894188845579</v>
+        <v>1.029936751504934</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.50434085988141</v>
+        <v>18.4698309892449</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.5068122661935</v>
+        <v>25.36109249944629</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.49714632085686</v>
+        <v>-1.431413888752772</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.49980850270805</v>
+        <v>16.79700034216081</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.50083506876417</v>
+        <v>22.98896098460843</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.49787439060841</v>
+        <v>6.204661949779748</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.50385024413113</v>
+        <v>26.72522741477702</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.50263799112767</v>
+        <v>8.634326330553463</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.50412307654761</v>
+        <v>26.07062023005086</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.50627483965012</v>
+        <v>32.9578019873036</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.49763862075366</v>
+        <v>6.180412560295068</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.50723652814775</v>
+        <v>24.40668702616951</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.50782228765805</v>
+        <v>30.59411348215237</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.49992843273298</v>
+        <v>13.81519267029752</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.51267060440039</v>
+        <v>34.33211325238166</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.51202089709748</v>
+        <v>41.70298329821186</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.51213952256728</v>
+        <v>37.30714798067505</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.51556255040501</v>
+        <v>45.2238354411178</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.51470584940315</v>
+        <v>49.22654020068263</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.50947093848288</v>
+        <v>15.69223478688743</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.51385064323944</v>
+        <v>36.84337527290235</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.51435634010069</v>
+        <v>45.78315575626881</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.5024203741432</v>
+        <v>11.42897424444904</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.50563241135056</v>
+        <v>28.87014696877374</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.50684900530279</v>
+        <v>35.76124844108496</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.49720306050115</v>
+        <v>8.970076965411195</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.50571980371982</v>
+        <v>27.19994094249718</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.50715327192337</v>
+        <v>33.39174084339346</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.51137027221817</v>
+        <v>37.12895623886631</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.49966270692966</v>
+        <v>11.48672307381391</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.50240610383053</v>
+        <v>28.92357148625503</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.50562508622381</v>
+        <v>35.81091968128523</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.49707289436281</v>
+        <v>9.034166391226918</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.50665684553579</v>
+        <v>27.26103101442858</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.50731343226374</v>
+        <v>33.44866310457418</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.49824571076666</v>
+        <v>16.66907658925153</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.51202010211689</v>
+        <v>37.18654373007372</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.51290632670631</v>
+        <v>44.55758590566747</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.51379665212306</v>
+        <v>40.161654720073</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.51518133783703</v>
+        <v>48.07835749520349</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.51651324564574</v>
+        <v>52.08129827205666</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.50070045121397</v>
+        <v>18.54604408604065</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.50840628392022</v>
+        <v>39.69801040493316</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.51242331512313</v>
+        <v>48.63798932586134</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.50045110918133</v>
+        <v>14.28241476866994</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.50533266106626</v>
+        <v>31.72414204067287</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.50685124965397</v>
+        <v>38.61540998521356</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.49707385891518</v>
+        <v>11.82487464185694</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.50465845514924</v>
+        <v>30.05532882687216</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.50709084632717</v>
+        <v>36.24733439437559</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.49895897508788</v>
+        <v>19.46199737428687</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.51046377905043</v>
+        <v>39.98443067858751</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.49811275887799</v>
+        <v>3.781605663150359</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.50003044519879</v>
+        <v>21.21757955248439</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.50327906287256</v>
+        <v>28.10529543161967</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.49703625931089</v>
+        <v>1.327578904424982</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.50531728088809</v>
+        <v>19.55341223892039</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.50690729262856</v>
+        <v>25.74145109859889</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.49737611656201</v>
+        <v>8.961623471740282</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.50892155770259</v>
+        <v>29.47817720456557</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.51135602331859</v>
+        <v>36.84957512620919</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.51009515966635</v>
+        <v>32.45241107576875</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.51161667401444</v>
+        <v>40.36893444976512</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.51313032284018</v>
+        <v>44.37203504722085</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.4981504672247</v>
+        <v>10.83776512321653</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.50413327193869</v>
+        <v>31.98860783143427</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.51177307107763</v>
+        <v>40.92913309200141</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.49911299617608</v>
+        <v>6.575191341445716</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.50446717463059</v>
+        <v>24.01604398234134</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.50640115342451</v>
+        <v>30.90767952080854</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.49706542664898</v>
+        <v>4.116180912851419</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.50370573824145</v>
+        <v>22.34560371681813</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.50609301103278</v>
+        <v>28.53801593690356</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.49728215295058</v>
+        <v>11.75243786019986</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.50834309633783</v>
+        <v>32.27395763606695</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.50468532504761</v>
+        <v>34.10046325027066</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.50282383881536</v>
+        <v>29.70306471234871</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.50879840406209</v>
+        <v>37.62382495675446</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.51043735160324</v>
+        <v>41.62835790195835</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.49992127581175</v>
+        <v>8.087270885002241</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.5031442537408</v>
+        <v>29.24584156011532</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.50542022130311</v>
+        <v>38.18751731641386</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.50094390173666</v>
+        <v>11.28188162477944</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.50408004828435</v>
+        <v>28.7261258507415</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.5084077850612</v>
+        <v>35.61927461567747</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.49712508854344</v>
+        <v>8.825276561012188</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.49924937457203</v>
+        <v>27.05857365122326</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.5010265984133</v>
+        <v>33.25213268711356</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.49791490622958</v>
+        <v>16.46469528369393</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.50390657940547</v>
+        <v>36.98968390149095</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.50993115971301</v>
+        <v>44.36676353282043</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.50481144060392</v>
+        <v>39.97427009000491</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.51281893728205</v>
+        <v>47.89747251509995</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.51407240601236</v>
+        <v>51.90332538776069</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.49961264725421</v>
+        <v>18.35256008901889</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.50329098009738</v>
+        <v>39.51595807768935</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.50699621706258</v>
+        <v>48.46079371885743</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.51297358048104</v>
+        <v>44.50404703121411</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.51123783869615</v>
+        <v>40.10756024643628</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.51562204962459</v>
+        <v>48.02852224369646</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.51671640843404</v>
+        <v>52.03310983047005</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.50452966074053</v>
+        <v>18.49029898557946</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.51380630420779</v>
+        <v>39.65058912210158</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.512740039962</v>
+        <v>48.59200059661863</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.50424580741668</v>
+        <v>21.68367036840688</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.50701811844984</v>
+        <v>39.12919314533237</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.51146120601629</v>
+        <v>46.02218182027981</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.49735114531532</v>
+        <v>19.22951894022198</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.50973933915805</v>
+        <v>37.46426586583517</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.51192158489016</v>
+        <v>43.65766410505229</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.49873451831565</v>
+        <v>26.86985455498747</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.51707437551392</v>
+        <v>47.39616448557787</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.52068695264767</v>
+        <v>54.7730990171183</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.51797169461062</v>
+        <v>50.38151739956608</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.52284095753062</v>
+        <v>58.3049215774338</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.52497403850531</v>
+        <v>62.31082908850307</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.50917736535864</v>
+        <v>28.75833984916962</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.52111942067768</v>
+        <v>49.92345733696904</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.5220878131102</v>
+        <v>58.86802870508497</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.51585270639343</v>
+        <v>47.3596936401042</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.51078418848095</v>
+        <v>42.96311078224211</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.51322738190278</v>
+        <v>50.88408801852633</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.51631790388264</v>
+        <v>54.88891165899499</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.5018249623122</v>
+        <v>21.34515216367789</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.51271198643021</v>
+        <v>42.5062681902174</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.50112212463952</v>
+        <v>24.53892938485798</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.50634878840051</v>
+        <v>41.98500673363766</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.5109993995604</v>
+        <v>48.87816186749264</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.49712569294753</v>
+        <v>22.08613525579473</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.50901441254206</v>
+        <v>40.32147241663951</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.51170588511422</v>
+        <v>46.51507631458641</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.49944184643686</v>
+        <v>29.72660113092412</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.51696683671329</v>
+        <v>50.2534576784408</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.52267076414256</v>
+        <v>57.63056436207081</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.51990083065407</v>
+        <v>53.23888666384995</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.52368296164877</v>
+        <v>61.16230608437742</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.52627063339365</v>
+        <v>65.16844964357746</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.50282911429302</v>
+        <v>31.61501165973483</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.51971053474245</v>
+        <v>52.78095503707745</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.52270651524502</v>
+        <v>61.72572486367189</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.51248537559923</v>
+        <v>39.64957625589888</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.50478289706627</v>
+        <v>35.25176057638852</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.50722758094992</v>
+        <v>43.17255836154779</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.50947028443449</v>
+        <v>47.17754185749597</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.49972245995787</v>
+        <v>13.63476680446753</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.51010944837307</v>
+        <v>34.79475901048455</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.51200503868158</v>
+        <v>43.73691524643188</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.5001144743912</v>
+        <v>16.83031465035232</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.50598359584551</v>
+        <v>34.27551733311272</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.51200014472628</v>
+        <v>41.16904012550198</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.49714607437322</v>
+        <v>14.37605004707429</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.50870931950948</v>
+        <v>32.61035576963242</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.51245146222104</v>
+        <v>38.80436639201561</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.49742866430717</v>
+        <v>22.0156500466227</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.51578442179923</v>
+        <v>42.54159303212454</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.52205733253884</v>
+        <v>49.91905543939357</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.51691466195312</v>
+        <v>45.52614484359789</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.5215101136385</v>
+        <v>53.4493848277432</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.52575758843505</v>
+        <v>57.45568825790021</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.49985318980668</v>
+        <v>23.9032346990406</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.51739349242517</v>
+        <v>45.06805423128073</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.52347348617553</v>
+        <v>54.01337038497481</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>22.36205396363707</v>
+        <v>-2.627369932223459</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>22.32380655140212</v>
+        <v>14.80512735464005</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>25.57043846576402</v>
+        <v>21.69116574213309</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>18.10806415938933</v>
+        <v>-5.085202169481349</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>22.36171942936052</v>
+        <v>13.13718648446822</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>22.6340961489477</v>
+        <v>19.32342626985236</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>20.56885639422413</v>
+        <v>2.548844826665132</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>27.10007702164276</v>
+        <v>23.06151067837642</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>28.51381846700874</v>
+        <v>30.43119960973935</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>22.72267171322215</v>
+        <v>26.03518333726039</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>24.70795292645787</v>
+        <v>33.95047305296852</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>24.42930184375447</v>
+        <v>37.95227962383434</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>24.59030788452785</v>
+        <v>4.424744342476643</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>22.93399565328487</v>
+        <v>25.57113761263476</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.01241000427808</v>
+        <v>34.50935735936856</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>21.27566964651959</v>
+        <v>0.1720015165854107</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>27.6334489968976</v>
+        <v>17.60937713947943</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.7351628023442</v>
+        <v>24.49933459244416</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>17.72830098921902</v>
+        <v>-2.290813910918345</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>21.37916592098022</v>
+        <v>15.93516393486779</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>22.95621656387279</v>
+        <v>22.12577645358955</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>18.72948617027416</v>
+        <v>5.345445859795532</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>27.36369305724285</v>
+        <v>25.86307734269782</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>22.18757784701782</v>
+        <v>7.767070536212273</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>23.62609647306123</v>
+        <v>25.20084598671373</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>24.79153565773721</v>
+        <v>32.08672424055364</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>18.45039941049454</v>
+        <v>5.311691066957351</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>26.42092936349012</v>
+        <v>23.53552913684747</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>27.14571136840731</v>
+        <v>29.72160805765192</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>19.76172323760389</v>
+        <v>12.94665444141823</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>30.07551092750241</v>
+        <v>33.4606412011067</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>29.77415024425305</v>
+        <v>40.83018498993012</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>31.54543791652589</v>
+        <v>36.43508059109696</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.2532900330981</v>
+        <v>44.35057203575231</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>35.11209694927157</v>
+        <v>48.35243324729085</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>26.99133042349155</v>
+        <v>14.8231744484806</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>31.13435134588764</v>
+        <v>35.97128669398388</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>31.6726141298953</v>
+        <v>44.90924215134227</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>23.04852535962523</v>
+        <v>10.56921607332733</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.2580571177377</v>
+        <v>28.00787002146377</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>30.53134345967077</v>
+        <v>34.8976674565164</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>17.76380294177731</v>
+        <v>8.108853671443072</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>29.90702440812388</v>
+        <v>26.3362810882319</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>32.24048695996857</v>
+        <v>32.52673287946028</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>18.38110188057673</v>
+        <v>15.74603002712537</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>37.35385668649404</v>
+        <v>36.26498258834853</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>19.34105584797606</v>
+        <v>10.618734897138</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>20.27691185254549</v>
+        <v>28.05306478332069</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>22.45208768549705</v>
+        <v>34.939109453813</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>17.64171110715396</v>
+        <v>8.164712337339679</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>24.85167430764234</v>
+        <v>26.38914048485687</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>25.00523253587155</v>
+        <v>32.57542501237675</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>18.6084951106183</v>
+        <v>15.79980575298966</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.54494953179304</v>
+        <v>36.31433899374305</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>29.73120066672092</v>
+        <v>43.6840548906613</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>32.50584249767919</v>
+        <v>39.28885468317152</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>33.9807093226137</v>
+        <v>47.20436143478891</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.3643252529375</v>
+        <v>51.20645863399683</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>18.89081815575707</v>
+        <v>17.67625118988725</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>24.15845319204336</v>
+        <v>38.82518916271091</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>26.55688773155024</v>
+        <v>47.76334302719262</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>20.08795020323206</v>
+        <v>13.42192408882239</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.15286438340969</v>
+        <v>30.86113250776442</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>30.33420011732597</v>
+        <v>37.75109639358699</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>17.61038961292815</v>
+        <v>10.96291866084097</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>26.66339097740799</v>
+        <v>29.1909362058034</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.96590735553875</v>
+        <v>35.38159363648039</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>19.79100104005672</v>
+        <v>18.60022514243384</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>33.77719281990731</v>
+        <v>39.1197242173313</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>18.28078545763807</v>
+        <v>2.914890593035707</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>19.32715219318805</v>
+        <v>20.34834606138851</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>21.67759068285923</v>
+        <v>27.23475836439003</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>17.56507963821789</v>
+        <v>0.4593981624710892</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>23.90965966175457</v>
+        <v>18.68279514034352</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>25.24523352405747</v>
+        <v>24.86948638614844</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>17.81565489852192</v>
+        <v>8.093626058931378</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>26.72986449366321</v>
+        <v>28.6072460034185</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>29.05904555057856</v>
+        <v>35.97731759496334</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.5965004600673</v>
+        <v>31.58088469121607</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>30.58308654691601</v>
+        <v>39.49621204894869</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>32.52398071942144</v>
+        <v>43.49846903976255</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>17.82399892173569</v>
+        <v>9.969245748372614</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>21.93861716103416</v>
+        <v>31.11706023966464</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>26.66278396584577</v>
+        <v>40.05576035893263</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>19.58851588290871</v>
+        <v>5.715973871552265</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>26.91041120153518</v>
+        <v>23.15430776443192</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>30.52588835457474</v>
+        <v>30.04463919266733</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>17.60585156704175</v>
+        <v>3.255498347263156</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>26.14637643989173</v>
+        <v>21.48248463031224</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>30.44213163421293</v>
+        <v>27.67354866206337</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>17.81842502990505</v>
+        <v>10.89193915495493</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>31.49281874740978</v>
+        <v>31.41052481334397</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>28.15995079845396</v>
+        <v>33.23698633871051</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>25.92767870376081</v>
+        <v>28.84031849755924</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>31.90480916171705</v>
+        <v>36.75988226625294</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>33.86041327017024</v>
+        <v>40.7635713534137</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>21.66948750864773</v>
+        <v>7.227531601363594</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>25.78968999778331</v>
+        <v>28.38307329589158</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>29.44857692416883</v>
+        <v>37.32292374034093</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>22.37228994052713</v>
+        <v>10.42480026543878</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>26.44091222841155</v>
+        <v>27.86652537480349</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>31.25919145797943</v>
+        <v>34.75836989065034</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>17.69701259347358</v>
+        <v>7.966729753600944</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>19.9333812793468</v>
+        <v>26.19758993140523</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>21.96255977715972</v>
+        <v>32.38980065892089</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>18.64441812719565</v>
+        <v>15.6063322501691</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>25.68808527390801</v>
+        <v>36.12838637557094</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>32.20859877202278</v>
+        <v>43.50413899000888</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>27.95372023422856</v>
+        <v>39.1123754118595</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>36.34810208488974</v>
+        <v>47.0343810372474</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>38.31433598399818</v>
+        <v>51.03938994062459</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>20.84888577289392</v>
+        <v>17.49367307649767</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>25.31724719906178</v>
+        <v>38.65404158850937</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>29.94224690955204</v>
+        <v>47.59705149707067</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>37.85875641416485</v>
+        <v>43.63874656063878</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>37.52565110157086</v>
+        <v>39.24299038094513</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>41.21217560776027</v>
+        <v>47.16275588474981</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>41.20351240251221</v>
+        <v>51.16649961073178</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>24.81861195136036</v>
+        <v>17.62873624735415</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>39.19091916034846</v>
+        <v>38.78599719501575</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>37.95604177327066</v>
+        <v>47.72558339220235</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>26.8832272652267</v>
+        <v>20.82476571449787</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>17.95839486445562</v>
+        <v>18.36914850284462</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>34.28090875462161</v>
+        <v>36.60145834057234</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>37.07229372194465</v>
+        <v>42.79350828595535</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>19.72845745708954</v>
+        <v>26.00966775449139</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>43.38064708260465</v>
+        <v>46.53304302306016</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>43.92841531222834</v>
+        <v>53.90865055715507</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>45.01682123346414</v>
+        <v>49.51779871227099</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>48.45266987406912</v>
+        <v>57.44000607288287</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>49.24699227062565</v>
+        <v>61.44506961218282</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>33.12199365494481</v>
+        <v>27.89762902332826</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>48.08110468839822</v>
+        <v>49.05971682671579</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>49.79469236007342</v>
+        <v>58.00246249652038</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>41.52852884768674</v>
+        <v>46.49366033713012</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>34.51875361611867</v>
+        <v>42.09780814382533</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>39.17120858372394</v>
+        <v>50.01758887887367</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>41.67267277687293</v>
+        <v>54.02156862890116</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>21.13266161646789</v>
+        <v>20.48285674192802</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>38.07463320920227</v>
+        <v>41.6409434739203</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>40.46847646208358</v>
+        <v>50.58072809149282</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>20.62158160552177</v>
+        <v>23.67929200981213</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>28.64327937974375</v>
+        <v>41.12285000369515</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>34.06730202640289</v>
+        <v>48.0147008871228</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>17.63285061208339</v>
+        <v>21.22503191932846</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>32.41840481322706</v>
+        <v>39.45793191259988</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>35.90750912898166</v>
+        <v>45.65018748922672</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>20.14801765433434</v>
+        <v>28.86568138511451</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>42.73574582579354</v>
+        <v>49.38960319290449</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>46.93588042647256</v>
+        <v>56.76538285737435</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>46.86389442993589</v>
+        <v>52.37443499126927</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>51.0195104273337</v>
+        <v>60.29665758683929</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>50.91815198011611</v>
+        <v>64.30195714452795</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>22.86980740452464</v>
+        <v>30.75356793855566</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>48.06847626951694</v>
+        <v>51.91648152576717</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>52.08401666138452</v>
+        <v>60.85942562353456</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>39.08696673469687</v>
+        <v>38.784816539918</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>28.08056456494985</v>
+        <v>34.38773169354489</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>31.29020413871615</v>
+        <v>42.30733298452539</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>34.27838837347868</v>
+        <v>46.31147256104033</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>19.94187079444719</v>
+        <v>12.77374500707243</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>34.44555535736164</v>
+        <v>33.93070804802643</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>37.73225951409387</v>
+        <v>42.87103889114452</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>21.01429659687342</v>
+        <v>15.97195071122418</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>28.60948426670337</v>
+        <v>33.41463414437398</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>35.34373996105414</v>
+        <v>40.30685263445993</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>17.75950172085479</v>
+        <v>13.51622035174024</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>33.56620633407867</v>
+        <v>31.74808902611552</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>36.35268624300596</v>
+        <v>37.94075127568091</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>18.19242238814669</v>
+        <v>21.15600405348199</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>42.8752512354928</v>
+        <v>41.67901241118433</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>46.82659359040324</v>
+        <v>49.05514774777897</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>44.03539659449071</v>
+        <v>44.6629671529147</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>49.04006969022058</v>
+        <v>52.58501031927973</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>51.74494889298157</v>
+        <v>56.59046971864872</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>22.06190336175813</v>
+        <v>23.0430648285493</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>47.18758053066821</v>
+        <v>44.20485469971347</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>52.1044023830887</v>
+        <v>53.14834503983811</v>
       </c>
     </row>
   </sheetData>
